--- a/src/handle/Commodities.xlsx
+++ b/src/handle/Commodities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moayad/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moayad/Documents/www/clarisa-wos-api/src/handle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1673BF1-4DE5-D84D-BCE4-89C8D7D01412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D685E7C-AB99-4647-9A00-BE91FCD170C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{EA341B05-3F70-5D49-BC85-4BF085F1C677}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="189">
-  <si>
-    <t>Commodities - 1.0</t>
-  </si>
-  <si>
-    <t>Name variation (simplified, only a few cases considered)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Aegilops</t>
   </si>
@@ -47,9 +41,6 @@
     <t>Alfalfa</t>
   </si>
   <si>
-    <t>Medicago sativa</t>
-  </si>
-  <si>
     <t>Alpacas</t>
   </si>
   <si>
@@ -59,45 +50,24 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>Apples</t>
-  </si>
-  <si>
     <t>Apricot</t>
   </si>
   <si>
-    <t>Apricots</t>
-  </si>
-  <si>
     <t>Avocado</t>
   </si>
   <si>
-    <t>Avocados</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
-    <t>Bananas, Musa</t>
-  </si>
-  <si>
     <t>Barley</t>
   </si>
   <si>
-    <t>Hordeum vulgare</t>
-  </si>
-  <si>
     <t>Bean</t>
   </si>
   <si>
-    <t>Beans</t>
-  </si>
-  <si>
     <t>Bell pepper</t>
   </si>
   <si>
-    <t>Bell peppers</t>
-  </si>
-  <si>
     <t>Bitter gourd</t>
   </si>
   <si>
@@ -116,66 +86,36 @@
     <t>Breadfruit</t>
   </si>
   <si>
-    <t>Artocarpus altilis</t>
-  </si>
-  <si>
     <t>Cabbage</t>
   </si>
   <si>
-    <t>Cabbages</t>
-  </si>
-  <si>
     <t>Cacao</t>
   </si>
   <si>
-    <t>Theobroma cacao</t>
-  </si>
-  <si>
     <t>Cactus</t>
   </si>
   <si>
-    <t>Opuntia ficus indica</t>
-  </si>
-  <si>
-    <t>Camelidae</t>
-  </si>
-  <si>
     <t>Canola</t>
   </si>
   <si>
-    <t>Brassica napus</t>
-  </si>
-  <si>
     <t>Cassava</t>
   </si>
   <si>
     <t>Cattle</t>
   </si>
   <si>
-    <t>Chickens</t>
-  </si>
-  <si>
     <t>Chickpea</t>
   </si>
   <si>
-    <t>Chickpeas</t>
-  </si>
-  <si>
     <t>Chicory</t>
   </si>
   <si>
     <t>Citrus</t>
   </si>
   <si>
-    <t>Cocoa</t>
-  </si>
-  <si>
     <t>Coconut</t>
   </si>
   <si>
-    <t>Coconuts</t>
-  </si>
-  <si>
     <t>Coffee</t>
   </si>
   <si>
@@ -185,9 +125,6 @@
     <t>Common bean</t>
   </si>
   <si>
-    <t>Common beans, Kidney beans</t>
-  </si>
-  <si>
     <t>Cotton</t>
   </si>
   <si>
@@ -197,21 +134,12 @@
     <t>Cowpea</t>
   </si>
   <si>
-    <t>Cowpeas</t>
-  </si>
-  <si>
     <t>Cucumber</t>
   </si>
   <si>
-    <t>Cucumbers</t>
-  </si>
-  <si>
     <t>Cumin</t>
   </si>
   <si>
-    <t>Cuminum cyminum</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -221,24 +149,15 @@
     <t>Durum wheat</t>
   </si>
   <si>
-    <t>Hard wheat</t>
-  </si>
-  <si>
     <t>Eggplant</t>
   </si>
   <si>
-    <t>Eggplants</t>
-  </si>
-  <si>
     <t>Elymus</t>
   </si>
   <si>
     <t>Faba bean</t>
   </si>
   <si>
-    <t>Faba beans, broad beans</t>
-  </si>
-  <si>
     <t>Fenugreek</t>
   </si>
   <si>
@@ -248,9 +167,6 @@
     <t>Fig</t>
   </si>
   <si>
-    <t>Figs</t>
-  </si>
-  <si>
     <t>Finger millet</t>
   </si>
   <si>
@@ -260,9 +176,6 @@
     <t>Forage</t>
   </si>
   <si>
-    <t>Forages</t>
-  </si>
-  <si>
     <t>Fruit trees</t>
   </si>
   <si>
@@ -278,21 +191,12 @@
     <t>Grass pea</t>
   </si>
   <si>
-    <t>Lathyrus sativus</t>
-  </si>
-  <si>
     <t>Groundnut</t>
   </si>
   <si>
-    <t>Groundnuts, Peanut, Peanuts</t>
-  </si>
-  <si>
     <t>Guava</t>
   </si>
   <si>
-    <t>Guavas</t>
-  </si>
-  <si>
     <t>Guinea pigs</t>
   </si>
   <si>
@@ -305,27 +209,15 @@
     <t>Legume</t>
   </si>
   <si>
-    <t>Legumes</t>
-  </si>
-  <si>
     <t>Lemon</t>
   </si>
   <si>
-    <t>Lemons</t>
-  </si>
-  <si>
     <t>Lentil</t>
   </si>
   <si>
-    <t>Lentils</t>
-  </si>
-  <si>
     <t>Lettuce</t>
   </si>
   <si>
-    <t>Lettuces</t>
-  </si>
-  <si>
     <t>Llamas</t>
   </si>
   <si>
@@ -335,93 +227,51 @@
     <t>Mango</t>
   </si>
   <si>
-    <t>Mangoes</t>
-  </si>
-  <si>
     <t>Mangosteen</t>
   </si>
   <si>
     <t>Medics</t>
   </si>
   <si>
-    <t>Medicago</t>
-  </si>
-  <si>
     <t>Millet</t>
   </si>
   <si>
-    <t>Millets</t>
-  </si>
-  <si>
     <t>Misc legumes</t>
   </si>
   <si>
     <t>Multipurpose tree</t>
   </si>
   <si>
-    <t>Multipurpose trees</t>
-  </si>
-  <si>
     <t>Mung bean</t>
   </si>
   <si>
-    <t>Mung beans</t>
-  </si>
-  <si>
     <t>Naked barley</t>
   </si>
   <si>
-    <t>Hordeum distichon</t>
-  </si>
-  <si>
     <t>Oat</t>
   </si>
   <si>
-    <t>Oats</t>
-  </si>
-  <si>
     <t>Okra</t>
   </si>
   <si>
-    <t>Okras</t>
-  </si>
-  <si>
     <t>Olive</t>
   </si>
   <si>
-    <t>Olives</t>
-  </si>
-  <si>
     <t>Onion</t>
   </si>
   <si>
-    <t>Onions</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
-    <t>Sweet oranges</t>
-  </si>
-  <si>
     <t>Papaya</t>
   </si>
   <si>
-    <t>Papayas</t>
-  </si>
-  <si>
     <t>Pea</t>
   </si>
   <si>
-    <t>Peas</t>
-  </si>
-  <si>
     <t>Pear</t>
   </si>
   <si>
-    <t>Pears</t>
-  </si>
-  <si>
     <t>Pearl millet</t>
   </si>
   <si>
@@ -431,24 +281,15 @@
     <t>Pigeon pea</t>
   </si>
   <si>
-    <t>Pigeon peas, Pigeonpea, pigeonpeas</t>
-  </si>
-  <si>
     <t>Pisum</t>
   </si>
   <si>
     <t>Plum</t>
   </si>
   <si>
-    <t>Plums</t>
-  </si>
-  <si>
     <t>Potato</t>
   </si>
   <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
     <t>Poultry</t>
   </si>
   <si>
@@ -464,15 +305,9 @@
     <t>Red pepper</t>
   </si>
   <si>
-    <t>Red peppers, sweet pepper, sweet peppers</t>
-  </si>
-  <si>
     <t>Rice</t>
   </si>
   <si>
-    <t>Oryza sativa</t>
-  </si>
-  <si>
     <t>Rye</t>
   </si>
   <si>
@@ -482,9 +317,6 @@
     <t>Sheep</t>
   </si>
   <si>
-    <t>Small millets</t>
-  </si>
-  <si>
     <t>Small ruminants</t>
   </si>
   <si>
@@ -497,9 +329,6 @@
     <t>Soya bean</t>
   </si>
   <si>
-    <t>Soybean, soybeans, Soya beans</t>
-  </si>
-  <si>
     <t>Spring barley</t>
   </si>
   <si>
@@ -515,30 +344,18 @@
     <t>Sunflower</t>
   </si>
   <si>
-    <t>Sunflowers</t>
-  </si>
-  <si>
     <t>Sweet potato</t>
   </si>
   <si>
-    <t>Sweetpotato, sweet potatoes, sweetpotatoes</t>
-  </si>
-  <si>
     <t>Swine</t>
   </si>
   <si>
-    <t>Pigs, hogs</t>
-  </si>
-  <si>
     <t>Taro</t>
   </si>
   <si>
     <t>Tea</t>
   </si>
   <si>
-    <t>Camellia sinensis</t>
-  </si>
-  <si>
     <t>Tobacco</t>
   </si>
   <si>
@@ -548,39 +365,21 @@
     <t>Tomato</t>
   </si>
   <si>
-    <t>Tomatoes, Solanum lycopersicum</t>
-  </si>
-  <si>
     <t>Trifolium</t>
   </si>
   <si>
-    <t>clovers</t>
-  </si>
-  <si>
     <t>Triticale</t>
   </si>
   <si>
-    <t>Triticosecale</t>
-  </si>
-  <si>
     <t>Vetch</t>
   </si>
   <si>
-    <t>Vetches, Vicia</t>
-  </si>
-  <si>
     <t>Walnut</t>
   </si>
   <si>
-    <t>Walnuts</t>
-  </si>
-  <si>
     <t>Watermelon</t>
   </si>
   <si>
-    <t>Watermelons</t>
-  </si>
-  <si>
     <t>Wheat</t>
   </si>
   <si>
@@ -593,13 +392,298 @@
     <t>Yam</t>
   </si>
   <si>
-    <t>Yams</t>
-  </si>
-  <si>
     <t>Zucchini</t>
   </si>
   <si>
-    <t>marrows</t>
+    <t>Commodities - Version 2</t>
+  </si>
+  <si>
+    <t>Name variation (including AGROVOC entry terms)</t>
+  </si>
+  <si>
+    <t>goat grass</t>
+  </si>
+  <si>
+    <t>Medicago sativa, alfalfa, lucerne</t>
+  </si>
+  <si>
+    <t>lama pacos</t>
+  </si>
+  <si>
+    <t>Amarantus, grain amaranths</t>
+  </si>
+  <si>
+    <t>apples, crab apples</t>
+  </si>
+  <si>
+    <t>apricots</t>
+  </si>
+  <si>
+    <t>avocados, alligator pear, avocado pear</t>
+  </si>
+  <si>
+    <t>bananas, Musa</t>
+  </si>
+  <si>
+    <t>Hordeum vulgare, spring Barley</t>
+  </si>
+  <si>
+    <t>beans</t>
+  </si>
+  <si>
+    <t>bell peppers, sweet peppers, sweet pepper, green pepper, green peppers, paprika, paprikas, pimiento, red pepper, red peppers</t>
+  </si>
+  <si>
+    <t>Momordica charantia, balsam pear, bitter melon</t>
+  </si>
+  <si>
+    <t>Lagenaria siceraria, calabash gourd, Lagenaria vulgaris</t>
+  </si>
+  <si>
+    <t>palisade grass</t>
+  </si>
+  <si>
+    <t>durinam grass</t>
+  </si>
+  <si>
+    <t>Artocarpus altilis, Artocarpus communis, Artocarpus incisa, breadfruit tree, breadfruit trees</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>buffaloes, cape buffalo, cape buffaloes, African buffalo, African buffaloes</t>
+  </si>
+  <si>
+    <t>cabbages</t>
+  </si>
+  <si>
+    <t>Theobroma cacao, chocolate tree, cocoa tree, Cocoa</t>
+  </si>
+  <si>
+    <t>Opuntia ficus indica, Opuntia ficus-indica, cactus pear, cactus pears, Indian fig, Indian figs, spineless cactus</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>Camelidae, camels</t>
+  </si>
+  <si>
+    <t>Brassica napus, colza, rape</t>
+  </si>
+  <si>
+    <t>Mandioca, manioc, yuca</t>
+  </si>
+  <si>
+    <t>cattles, domestic cattle</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>chickens, paultry, domestic fowl</t>
+  </si>
+  <si>
+    <t>chickpeas, bengal gram, chick pea, chick peas</t>
+  </si>
+  <si>
+    <t>coconuts</t>
+  </si>
+  <si>
+    <t>common beans, kidney bean, kidney beans, field bean, haricot bean, haricot beans, kidney bean, kidney beans, navy bean, navy beans, pea bean, pea beans, pinto bean, pinto beans</t>
+  </si>
+  <si>
+    <t>cowpeas, castilla bean, castilla beans, caupi, marble pea, sitao, southernpea, southern pea</t>
+  </si>
+  <si>
+    <t>cucumbers</t>
+  </si>
+  <si>
+    <t>Cuminum cyminum, cummin</t>
+  </si>
+  <si>
+    <t>hard wheat, durum, durum wheat, Triticum durum</t>
+  </si>
+  <si>
+    <t>eggplants, aubergines, brinjal</t>
+  </si>
+  <si>
+    <t>Aneurolepidium, Elytrigia, wild rye</t>
+  </si>
+  <si>
+    <t>faba beans, fava bean, fava beans, broad bean, broad beans, field bean, horse bean, tick bean, tick beans</t>
+  </si>
+  <si>
+    <t>figs</t>
+  </si>
+  <si>
+    <t>besna, coracan, koracan, raghi, ragi, South Indian millet</t>
+  </si>
+  <si>
+    <t>fish meat, fresh fish, wet fish</t>
+  </si>
+  <si>
+    <t>forages, fodder, feeds</t>
+  </si>
+  <si>
+    <t>Allium sativum</t>
+  </si>
+  <si>
+    <t>Capra hircus</t>
+  </si>
+  <si>
+    <t>Lathyrus sativus, chickling vetch, grass pea, kasari</t>
+  </si>
+  <si>
+    <t>groundnuts, peanut, peanuts, monkeynut, monkeynuts</t>
+  </si>
+  <si>
+    <t>guavas, Psidium guajava</t>
+  </si>
+  <si>
+    <t>cavies, guineapig, guineapigs</t>
+  </si>
+  <si>
+    <t>legumes</t>
+  </si>
+  <si>
+    <t>lemons</t>
+  </si>
+  <si>
+    <t>lentils</t>
+  </si>
+  <si>
+    <t>lettuces</t>
+  </si>
+  <si>
+    <t>Lama glama</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>mangoes, Mangifera indica</t>
+  </si>
+  <si>
+    <t>Medicago, medics</t>
+  </si>
+  <si>
+    <t>millets</t>
+  </si>
+  <si>
+    <t>multipurpose trees, multiple use tree, multiple use trees</t>
+  </si>
+  <si>
+    <t>mung beans, golden gram, green gram</t>
+  </si>
+  <si>
+    <t>Hordeum distichon, hulless barley, naked barley</t>
+  </si>
+  <si>
+    <t>oats</t>
+  </si>
+  <si>
+    <t>okras, Hibiscus esculentus, gombo</t>
+  </si>
+  <si>
+    <t>olives</t>
+  </si>
+  <si>
+    <t>onions, Allium cepa</t>
+  </si>
+  <si>
+    <t>oranges, sweet oranges, sweet oranges</t>
+  </si>
+  <si>
+    <t>papayas, pawpaw</t>
+  </si>
+  <si>
+    <t>peas, field pea, garden pea</t>
+  </si>
+  <si>
+    <t>pears</t>
+  </si>
+  <si>
+    <t>Cenchrus americanus, bajra, bulrush millet</t>
+  </si>
+  <si>
+    <t>pigeon peas, pigeonpea, pigeonpeas, Arhar, cajan, congo bean, congo beans, congo pea, dhal, noneye pea, red gram, red gram</t>
+  </si>
+  <si>
+    <t>plums, damsons, gages, greengages</t>
+  </si>
+  <si>
+    <t>potatoes, Irish potato, Solanum tuberosum</t>
+  </si>
+  <si>
+    <t>domesticated birds</t>
+  </si>
+  <si>
+    <t>Chenopodium quinoa, quinua</t>
+  </si>
+  <si>
+    <t>red peppers, sweet pepper, sweet peppers, green pepper, green peppers, paprika, paprikas, pimiento, red pepper, red peppers</t>
+  </si>
+  <si>
+    <t>Oryza sativa, paddy</t>
+  </si>
+  <si>
+    <t>Ovis aries</t>
+  </si>
+  <si>
+    <t>Small millet</t>
+  </si>
+  <si>
+    <t>little millet, Panicum sumatrense, Samai, Sawan, small millet</t>
+  </si>
+  <si>
+    <t>bread wheat, corn, Triticum aestivum</t>
+  </si>
+  <si>
+    <t>soybean, soybeans, soya beans, soja bean, soja beans, soy bean, soy beans</t>
+  </si>
+  <si>
+    <t>sunflowers</t>
+  </si>
+  <si>
+    <t>sweetpotato, sweet potatoes, sweetpotatoes</t>
+  </si>
+  <si>
+    <t>pig, pigs, hog, hogs</t>
+  </si>
+  <si>
+    <t>Colocasia antiquorum, taro</t>
+  </si>
+  <si>
+    <t>Camellia sinensis, Camellia thea, Camellia theifera, Thea bohea, Thea sinensis, Thea viridis</t>
+  </si>
+  <si>
+    <t>tomatoes, Solanum lycopersicum, Solanum pimpinellifolium</t>
+  </si>
+  <si>
+    <t>clover, clovers, trefoil, trefoils</t>
+  </si>
+  <si>
+    <t>triticosecale</t>
+  </si>
+  <si>
+    <t>vetches, Vicia</t>
+  </si>
+  <si>
+    <t>walnuts</t>
+  </si>
+  <si>
+    <t>watermelons, Citrullus lanatus</t>
+  </si>
+  <si>
+    <t>wheats</t>
+  </si>
+  <si>
+    <t>yams</t>
+  </si>
+  <si>
+    <t>marrow, marrows, courgettes</t>
   </si>
 </sst>
 </file>
@@ -672,7 +756,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -960,7 +1044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,825 +1054,924 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44CFB53-0994-A840-BA93-B53433E09B37}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>199</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>182</v>
+        <v>115</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
